--- a/example_data/Summary/before/Averages by Sample/Avg Raw Means Differences_before_.xlsx
+++ b/example_data/Summary/before/Averages by Sample/Avg Raw Means Differences_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,103 +438,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002082265348185364</v>
+        <v>3.15234443604975e-05</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.000995605034396831</v>
+        <v>-0.0003256434465435747</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0004706860346779679</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0004706860346779679</v>
+        <v>3.15234443604975e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.000553668698469215</v>
+        <v>0.0002584318130430998</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.0003184244310867663</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.000553668698469215</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.000553668698469215</v>
+        <v>0.0002584318130430998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.004414000636350224</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.001285394627816721</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.004414000636350224</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.0004273354181910925</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.0003256434465435747</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-5.871918003815511e-05</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.0004273354181910925</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.005048307507401492</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.0001452875970543589</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0002110480763018536</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.005048307507401492</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.00036707606163041</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0002110480763018536</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0009738258213281945</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,103 +667,211 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03566133101183439</v>
+        <v>0.002649065780323867</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1705094920760961</v>
+        <v>-0.0622487639803932</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.08061071803325498</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.08061071803325498</v>
+        <v>0.002649065780323867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02822309872684048</v>
+        <v>0.009897392254693549</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.08955915332779577</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.02822309872684048</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.02822309872684048</v>
+        <v>0.009897392254693549</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.247048365535558</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09071562144107118</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.247048365535558</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.05847364988548123</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.0622487639803932</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.01651519021442993</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.05847364988548123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1219612665263817</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.04086317791888522</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03416017175470878</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1219612665263817</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0259060776560921</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03416017175470878</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06872692062452349</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,105 +896,225 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2280783074702234</v>
+        <v>0.01885009763321482</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.090523411686954</v>
+        <v>-0.4022458877755335</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5155600088758004</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5155600088758004</v>
+        <v>0.01885009763321482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2275100252105857</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>0.06518409069001066</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.7371525556531162</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.2275100252105857</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.2275100252105857</v>
+        <v>0.06518409069001066</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.358299055300455</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6810297998256351</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.358299055300455</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3856529883316128</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.4022458877755335</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1359349013618459</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.3856529883316128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9017232998492519</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.3363407861256027</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2153567296180756</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9017232998492519</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1944848152956383</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2153567296180756</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5159539255976558</v>
       </c>
     </row>
   </sheetData>
